--- a/biology/Médecine/1230_en_santé_et_médecine/1230_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1230_en_santé_et_médecine/1230_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1230_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1230_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1230 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1230_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1230_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'empereur Frédéric II soumet le droit d'exercer la médecine à une année d'étude de l'anatomie avec dissection[1] et, en 1238, il ordonnera qu'une dissection soit pratiquée tous les cinq ans, en public, à l'école de Salerne[2].
-Fondation à Toulouse, en Languedoc de l'hôpital Sainte-Marie de la Daurade qui, réuni en 1313 à l'hôpital Novel, lui-même fondé en 1225, prendra le nom d'hôpital Saint-Jacques du bout du pont, puis, en 1554, celui d'hôtel-Dieu Saint-Jacques[3].
-Fondation par Louis de Langhac de la commanderie-hôpital de Saint-Antoine, à Annonay en Vivarais[4].
-Début de la construction de l'hôpital du Saint-Esprit de Lübeck, ville libre d'Empire[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'empereur Frédéric II soumet le droit d'exercer la médecine à une année d'étude de l'anatomie avec dissection et, en 1238, il ordonnera qu'une dissection soit pratiquée tous les cinq ans, en public, à l'école de Salerne.
+Fondation à Toulouse, en Languedoc de l'hôpital Sainte-Marie de la Daurade qui, réuni en 1313 à l'hôpital Novel, lui-même fondé en 1225, prendra le nom d'hôpital Saint-Jacques du bout du pont, puis, en 1554, celui d'hôtel-Dieu Saint-Jacques.
+Fondation par Louis de Langhac de la commanderie-hôpital de Saint-Antoine, à Annonay en Vivarais.
+Début de la construction de l'hôpital du Saint-Esprit de Lübeck, ville libre d'Empire.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1230_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1230_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Vers 1230 : Roland de Parme publie ses ajouts et commentaires à la Chirurgie de Rogerius (c.1140-c.1195), important traité compilé par Guido d'Arezzo le Jeune vers 1170[6],[7].
-1230-1250 : le médecin anglais Gilbert de Aquila (en)(c.1180–c.1250 rédige son Compendium medicinae (« Abrégé de médecine[8] »).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vers 1230 : Roland de Parme publie ses ajouts et commentaires à la Chirurgie de Rogerius (c.1140-c.1195), important traité compilé par Guido d'Arezzo le Jeune vers 1170,.
+1230-1250 : le médecin anglais Gilbert de Aquila (en)(c.1180–c.1250 rédige son Compendium medicinae (« Abrégé de médecine »).</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1230_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1230_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Vers 1230 : Pierre de La Brosse (mort en 1278), « barbier » devenu chambellan des rois de France Saint-Louis et Philippe III le Hardi[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vers 1230 : Pierre de La Brosse (mort en 1278), « barbier » devenu chambellan des rois de France Saint-Louis et Philippe III le Hardi.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1230_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1230_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +623,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Samuel ibn Tibbon (né en 1150), médecin et philosophe juif provençal, surtout connu comme traducteur du Guide des égarés de  Maïmonide[10].
-Muhaddab al-Din al-Dahwar (né à une date inconnue), médecin damascène, fondateur par testament d'une médersa spécialisée dans l'enseignement de la médecine et ouverte aux étudiants non musulmans[11].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Samuel ibn Tibbon (né en 1150), médecin et philosophe juif provençal, surtout connu comme traducteur du Guide des égarés de  Maïmonide.
+Muhaddab al-Din al-Dahwar (né à une date inconnue), médecin damascène, fondateur par testament d'une médersa spécialisée dans l'enseignement de la médecine et ouverte aux étudiants non musulmans.</t>
         </is>
       </c>
     </row>
